--- a/data/lipids_metabolites/protein/Lipid_ug_calculations_UTSworksheet.xlsx
+++ b/data/lipids_metabolites/protein/Lipid_ug_calculations_UTSworksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/larval_symbiont_TPC/data/lipids_metabolites/protein/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C13AB8-A674-BE40-9C8C-889215CDC8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E14BF0-ECAE-8642-B619-2F893EFAEACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1540" windowWidth="24200" windowHeight="16900" xr2:uid="{3B8837D6-B230-0149-AD69-35B53EA692B4}"/>
+    <workbookView xWindow="3420" yWindow="760" windowWidth="24200" windowHeight="16900" xr2:uid="{3B8837D6-B230-0149-AD69-35B53EA692B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Protein" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -158,13 +158,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D603B-CB6F-5441-803D-A0FCD3B9AA98}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,7 +885,6 @@
     <col min="10" max="10" width="37.1640625" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="30" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -932,10 +927,10 @@
       <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -991,376 +986,376 @@
         <f>M2*50</f>
         <v>16.967037444999999</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8">
+      <c r="O2"/>
+      <c r="P2">
         <v>0.06</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
         <v>0.50319999999999998</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-    </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+    </row>
+    <row r="3" spans="1:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.50319999999999998</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="1">
         <f>-(0.1497*C3^2)+(0.6696*C3)+0.3227</f>
         <v>0.6217371470719999</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>0.47989999999999999</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F26" si="0">-(0.1497*E3^2)+(0.6696*E3)+0.3227</f>
         <v>0.6095645297029999</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>0.47539999999999999</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="1">
         <f t="shared" ref="H3:H26" si="1">-(0.1497*G3^2)+(0.6696*G3)+0.3227</f>
         <v>0.60719486754799989</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I25" si="2">AVERAGE(D3,F3,H3)</f>
         <v>0.61283218144099993</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="8">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3">
         <f t="shared" ref="L3:L26" si="3">I3*1000</f>
         <v>612.83218144099999</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3">
         <f t="shared" ref="M3:M26" si="4">L3/1000</f>
         <v>0.61283218144099993</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="3">
         <f>M3*70</f>
         <v>42.898252700869996</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3">
         <v>0.125</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>0.51119999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
         <v>0.50239999999999996</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D26" si="5">-(0.1497*C4^2)+(0.6696*C4)+0.3227</f>
         <v>0.62132189772799995</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>0.5111</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>0.62582744546299995</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>0.51939999999999997</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>0.63010471890800002</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="2">
         <f t="shared" si="2"/>
         <v>0.62575135403299997</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="8">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4">
         <f t="shared" si="3"/>
         <v>625.75135403299998</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4">
         <f t="shared" si="4"/>
         <v>0.62575135403299997</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="3">
         <f t="shared" ref="N4:N9" si="6">M4*70</f>
         <v>43.802594782309995</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4">
         <v>0.25</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>0.59889999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.57010000000000005</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <f t="shared" si="5"/>
         <v>0.655784362703</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0.5847</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>0.66303656872700001</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0.55010000000000003</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>0.64574624150299997</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
         <v>0.65485572431099992</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="8">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5">
         <f t="shared" si="3"/>
         <v>654.8557243109999</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5">
         <f t="shared" si="4"/>
         <v>0.65485572431099992</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="3">
         <f t="shared" si="6"/>
         <v>45.839900701769992</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5">
         <v>0.5</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <v>0.81620000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
         <v>0.55710000000000004</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="1">
         <f t="shared" si="5"/>
         <v>0.64927320662300003</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.56220000000000003</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>0.65183361465200007</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>0.5484</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>0.6448874787679999</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="2">
         <f t="shared" si="2"/>
         <v>0.64866476668100004</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="8">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6">
         <f t="shared" si="3"/>
         <v>648.66476668100006</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6">
         <f t="shared" si="4"/>
         <v>0.64866476668100004</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="3">
         <f t="shared" si="6"/>
         <v>45.406533667670004</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>0.96860000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="1">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.66259999999999997</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="1">
         <f t="shared" si="5"/>
         <v>0.700652857628</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>0.64670000000000005</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>0.69312265276700002</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>0.64670000000000005</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>0.69312265276700002</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="2">
         <f t="shared" si="2"/>
         <v>0.69563272105399998</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="8">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7">
         <f t="shared" si="3"/>
         <v>695.63272105399994</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7">
         <f t="shared" si="4"/>
         <v>0.69563272105399998</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="3">
         <f t="shared" si="6"/>
         <v>48.694290473780001</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8">
         <v>0.5141</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="1">
         <f t="shared" si="5"/>
         <v>0.62737582814299997</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>0.50570000000000004</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>0.62303356624700001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.5181</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>0.62943614678299997</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="2">
         <f t="shared" si="2"/>
         <v>0.62661518039100006</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="8">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8">
         <f t="shared" si="3"/>
         <v>626.61518039100008</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8">
         <f t="shared" si="4"/>
         <v>0.62661518039100006</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="3">
         <f t="shared" si="6"/>
         <v>43.863062627370006</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.5806</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="1">
         <f t="shared" si="5"/>
         <v>0.66100643490799993</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0.56869999999999998</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>0.65508559240699993</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>0.56869999999999998</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>0.65508559240699993</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="2">
         <f t="shared" si="2"/>
         <v>0.65705920657399997</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="8">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9">
         <f t="shared" si="3"/>
         <v>657.05920657399997</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9">
         <f t="shared" si="4"/>
         <v>0.65705920657399997</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="3">
         <f t="shared" si="6"/>
         <v>45.994144460179996</v>
       </c>
@@ -1396,7 +1391,7 @@
         <v>0.32269999999999999</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" ref="N3:N25" si="7">50/M10</f>
+        <f t="shared" ref="N10:N25" si="7">50/M10</f>
         <v>154.94267121165169</v>
       </c>
     </row>
